--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +31,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,42 +113,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,39 +138,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -259,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -502,17 +440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -520,343 +458,198 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43225</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>43407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3922</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="2">
+        <v>4510</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43630</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>4005</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>83</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>356.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="2">
+        <v>4712</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">SUM(C3,-C2)</f>
+        <v>202</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3" si="1">PRODUCT(D3,E3)</f>
+        <v>923.1400000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>923.14</v>
+      </c>
+      <c r="H3" s="8">
+        <v>923.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>4130</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>536.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4330</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C4" s="2">
+        <v>4912</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f>PRODUCT(D4,E4)</f>
+        <v>898</v>
+      </c>
+      <c r="G4" s="8">
+        <v>898</v>
+      </c>
+      <c r="H4" s="8">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>4480</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43407</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C5" s="2">
+        <v>5072</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(C5,-C4)</f>
+        <v>160</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="5">
+        <f>PRODUCT(D5,E5)</f>
+        <v>718.40000000000009</v>
+      </c>
+      <c r="G5" s="8">
+        <v>718.4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>718.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>4510</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>43630</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>4712</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>923.1400000000001</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>43672</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>4912</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C6" s="2">
+        <v>5112</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C5)</f>
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F9" s="6">
-        <f>PRODUCT(D9,E9)</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43714</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>5072</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
-        <v>160</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>PRODUCT(D10,E10)</f>
-        <v>718.40000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>43738</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>5112</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C10)</f>
-        <v>40</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>PRODUCT(D11,E11)</f>
+      <c r="F6" s="5">
+        <f>PRODUCT(D6,E6)</f>
         <v>179.60000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G6" s="8">
+        <v>179.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>182.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8">
+        <f>SUM(G2:G6)</f>
+        <v>2719.14</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUM(H2:H6)</f>
+        <v>2738.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <f>SUM(H7,-G7)</f>
+        <v>19.200000000000273</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -866,12 +659,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,12 +673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,16 +49,19 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -440,17 +445,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -464,7 +469,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -490,15 +495,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43407</v>
+        <v>44088</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4510</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
@@ -506,149 +511,114 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="3">
-        <v>43630</v>
-      </c>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>4712</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">SUM(C3,-C2)</f>
-        <v>202</v>
+        <f t="shared" ref="D3" si="0">SUM(C3,-C2)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>4.57</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3" si="1">PRODUCT(D3,E3)</f>
-        <v>923.1400000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>923.14</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>923.14</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43672</v>
+        <v>43934</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>4912</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(C4,-C2)</f>
+        <v>115</v>
       </c>
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
         <f>PRODUCT(D4,E4)</f>
-        <v>898</v>
+        <v>516.35</v>
       </c>
       <c r="G4" s="8">
-        <v>898</v>
+        <f>SUM(F4,F5)</f>
+        <v>722.90000000000009</v>
       </c>
       <c r="H4" s="8">
-        <v>914</v>
+        <v>722.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>43714</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>5072</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C4)</f>
-        <v>160</v>
+        <f>SUM(C5,-C3)</f>
+        <v>85</v>
       </c>
       <c r="E5" s="5">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
         <f>PRODUCT(D5,E5)</f>
-        <v>718.40000000000009</v>
-      </c>
-      <c r="G5" s="8">
-        <v>718.4</v>
-      </c>
-      <c r="H5" s="8">
-        <v>718.4</v>
-      </c>
+        <v>206.55</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>43738</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5112</v>
-      </c>
-      <c r="D6" s="2">
-        <f>SUM(C6,-C5)</f>
-        <v>40</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f>PRODUCT(D6,E6)</f>
-        <v>179.60000000000002</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="8">
-        <v>179.6</v>
+        <f>SUM(G2:G5)</f>
+        <v>722.90000000000009</v>
       </c>
       <c r="H6" s="8">
-        <v>182.8</v>
+        <f>SUM(H2:H5)</f>
+        <v>722.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8">
-        <f>SUM(G2:G6)</f>
-        <v>2719.14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <f>SUM(H2:H6)</f>
-        <v>2738.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <f>SUM(H7,-G7)</f>
-        <v>19.200000000000273</v>
+        <f>SUM(H6,-G6)</f>
+        <v>-1.1368683772161603E-13</v>
       </c>
     </row>
   </sheetData>
@@ -659,12 +629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,12 +643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,36 +589,87 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+      <c r="A6" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>210</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C4)</f>
+        <v>95</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f>PRODUCT(D6,E6)</f>
+        <v>426.55</v>
       </c>
       <c r="G6" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>722.90000000000009</v>
+        <f>SUM(F6,F7)</f>
+        <v>681.7</v>
       </c>
       <c r="H6" s="8">
-        <f>SUM(H2:H5)</f>
-        <v>722.9</v>
+        <v>681.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>190</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C5)</f>
+        <v>105</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f>PRODUCT(D7,E7)</f>
+        <v>255.15</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G7)</f>
+        <v>1404.6000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H2:H7)</f>
+        <v>1404.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <f>SUM(H6,-G6)</f>
-        <v>-1.1368683772161603E-13</v>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
+        <v>-2.2737367544323206E-13</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,36 +640,87 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
+      <c r="A8" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>360</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>PRODUCT(D8,E8)</f>
+        <v>673.5</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(G2:G7)</f>
-        <v>1404.6000000000001</v>
+        <f>SUM(F8,F9)</f>
+        <v>795</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(H2:H7)</f>
-        <v>1404.6</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>240</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>PRODUCT(D9,E9)</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>2199.6000000000004</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>2199.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
-        <v>-2.2737367544323206E-13</v>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>-4.5474735088646412E-13</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,14 +548,14 @@
         <v>115</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C2)</f>
         <v>115</v>
       </c>
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="3">PRODUCT(D4,E4)</f>
         <v>516.35</v>
       </c>
       <c r="G4" s="8">
@@ -575,14 +575,14 @@
         <v>85</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="E5" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="3"/>
         <v>206.55</v>
       </c>
       <c r="G5" s="8"/>
@@ -599,14 +599,14 @@
         <v>210</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="3"/>
         <v>426.55</v>
       </c>
       <c r="G6" s="8">
@@ -626,14 +626,14 @@
         <v>190</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="E7" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="3"/>
         <v>255.15</v>
       </c>
       <c r="G7" s="8"/>
@@ -650,14 +650,14 @@
         <v>360</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="3"/>
         <v>673.5</v>
       </c>
       <c r="G8" s="8">
@@ -677,49 +677,100 @@
         <v>240</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E9" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="3"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>44102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="4">PRODUCT(D10,E10)</f>
+        <v>659.4</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>812.4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>812.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>300</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
         <f>SUM(G2:G9)</f>
         <v>2199.6000000000004</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H12" s="8">
         <f>SUM(H2:H9)</f>
         <v>2199.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>-4.5474735088646412E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,35 +742,86 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44362</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>700</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="6">PRODUCT(D12,E12)</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1146</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>380</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <f>SUM(G2:G9)</f>
         <v>2199.6000000000004</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="8">
         <f>SUM(H2:H9)</f>
         <v>2199.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
         <v>-4.5474735088646412E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/254ee.xlsx
+++ b/sputnik/personal/ee/254ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,36 +793,87 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
+      <c r="A14" s="3">
+        <v>44431</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>892</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>192</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="8">PRODUCT(D14,E14)</f>
+        <v>952.31999999999994</v>
       </c>
       <c r="G14" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>2199.6000000000004</v>
+        <f>SUM(F14,F15)</f>
+        <v>1126.52</v>
       </c>
       <c r="H14" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>2199.6</v>
+        <v>1126.52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>445</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="8"/>
+        <v>174.20000000000002</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(G2:G15)</f>
+        <v>5284.52</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H2:H15)</f>
+        <v>5284.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <f>SUM(H14,-G14)</f>
-        <v>-4.5474735088646412E-13</v>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
